--- a/resources/wheels/036 - Шаров.xlsx
+++ b/resources/wheels/036 - Шаров.xlsx
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -723,16 +723,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="19" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="19" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -929,9 +929,9 @@
       <c r="F16" s="21">
         <v>6.8</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>26.9</v>
+        <v>32.242</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1025,7 +1025,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -1035,7 +1037,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -1045,7 +1049,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -1566,16 +1572,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1788,9 +1794,9 @@
       <c r="F16" s="21">
         <v>67</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>87.1</v>
+        <v>92.442</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1900,7 +1906,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -1912,7 +1920,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -1924,7 +1934,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -2464,16 +2476,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2686,9 +2698,9 @@
       <c r="F16" s="21">
         <v>67</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>87.1</v>
+        <v>92.442</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2798,7 +2810,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -2810,7 +2824,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -2822,7 +2838,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -3362,16 +3380,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3586,9 +3604,9 @@
       <c r="F16" s="21">
         <v>64.3</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>84.399999999999991</v>
+        <v>89.74199999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3698,7 +3716,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -3710,7 +3730,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -3722,7 +3744,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -4262,16 +4286,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4486,9 +4510,9 @@
       <c r="F16" s="21">
         <v>64.3</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>84.399999999999991</v>
+        <v>89.74199999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4598,7 +4622,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -4610,7 +4636,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -4622,7 +4650,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -5162,16 +5192,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5388,9 +5418,9 @@
       <c r="F16" s="21">
         <v>6.8</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>26.9</v>
+        <v>32.242</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5500,7 +5530,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -5512,7 +5544,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -5524,7 +5558,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -6064,16 +6100,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6290,9 +6326,9 @@
       <c r="F16" s="21">
         <v>6.8</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>26.9</v>
+        <v>32.242</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6402,7 +6438,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -6414,7 +6452,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -6426,7 +6466,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -6966,16 +7008,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7192,9 +7234,9 @@
       <c r="F16" s="21">
         <v>6.8</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>26.9</v>
+        <v>32.242</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -7304,7 +7346,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -7316,7 +7360,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -7328,7 +7374,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -7868,16 +7916,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8090,9 +8138,9 @@
       <c r="F16" s="21">
         <v>49.3</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>69.399999999999991</v>
+        <v>74.74199999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -8202,7 +8250,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -8214,7 +8264,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -8226,7 +8278,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -8766,16 +8820,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8988,9 +9042,9 @@
       <c r="F16" s="21">
         <v>49.3</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>69.399999999999991</v>
+        <v>74.74199999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -9100,7 +9154,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -9112,7 +9168,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -9124,7 +9182,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -9667,16 +9727,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9889,9 +9949,9 @@
       <c r="F16" s="21">
         <v>130.30000000000001</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>150.4</v>
+        <v>155.74200000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -10001,7 +10061,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -10013,7 +10075,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -10025,7 +10089,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -10565,16 +10631,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10791,9 +10857,9 @@
       <c r="F16" s="21">
         <v>30.3</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.400000000000006</v>
+        <v>55.742000000000004</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -10903,7 +10969,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -10915,7 +10983,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -10927,7 +10997,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
@@ -11467,16 +11539,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11693,9 +11765,9 @@
       <c r="F16" s="21">
         <v>30.3</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.400000000000006</v>
+        <v>55.742000000000004</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -11805,7 +11877,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
@@ -11817,7 +11891,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>1.572</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
@@ -11829,7 +11905,9 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>3.36</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/036 - Шаров.xlsx
+++ b/resources/wheels/036 - Шаров.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="68">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -199,6 +199,42 @@
   </si>
   <si>
     <t>A3175A-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -931,7 +967,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>32.242</v>
+        <v>39.327000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1025,7 +1061,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -1037,8 +1073,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -1049,7 +1085,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -1061,7 +1097,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -1071,7 +1109,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -1081,7 +1121,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -1566,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1838,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>92.442</v>
+        <v>99.52699999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1906,7 +1948,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -1920,8 +1962,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -1934,7 +1976,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -1948,7 +1990,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -1960,7 +2004,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -1972,7 +2018,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -2470,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2700,7 +2748,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>92.442</v>
+        <v>99.52699999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2810,7 +2858,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -2824,8 +2872,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -2838,7 +2886,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -2852,7 +2900,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -2864,7 +2914,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -2876,7 +2928,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -3374,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3660,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>89.74199999999999</v>
+        <v>96.82699999999998</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3716,7 +3770,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -3730,8 +3784,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -3744,7 +3798,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -3758,7 +3812,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -3770,7 +3826,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -3782,7 +3840,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -4280,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4512,7 +4572,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>89.74199999999999</v>
+        <v>96.82699999999998</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4622,7 +4682,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -4636,8 +4696,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -4650,7 +4710,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -4664,7 +4724,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -4676,7 +4738,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -4688,7 +4752,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -5420,7 +5486,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>32.242</v>
+        <v>39.327000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5530,7 +5596,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -5544,8 +5610,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -5558,7 +5624,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -5572,7 +5638,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -5584,7 +5652,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -5596,7 +5666,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -6328,7 +6400,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>32.242</v>
+        <v>39.327000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6438,7 +6510,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -6452,8 +6524,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -6466,7 +6538,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -6480,7 +6552,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -6492,7 +6566,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -6504,7 +6580,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -7236,7 +7314,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>32.242</v>
+        <v>39.327000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -7346,7 +7424,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -7360,8 +7438,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -7374,7 +7452,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -7388,7 +7466,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -7400,7 +7480,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -7412,7 +7494,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -8140,7 +8224,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>74.74199999999999</v>
+        <v>81.82699999999998</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -8250,7 +8334,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -8264,8 +8348,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -8278,7 +8362,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -8292,7 +8376,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -8304,7 +8390,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -8316,7 +8404,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -9044,7 +9134,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>74.74199999999999</v>
+        <v>81.82699999999998</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -9154,7 +9244,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -9168,8 +9258,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -9182,7 +9272,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -9196,7 +9286,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -9208,7 +9300,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -9220,7 +9314,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -9951,7 +10047,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>155.74200000000002</v>
+        <v>162.827</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -10061,7 +10157,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -10075,8 +10171,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -10089,7 +10185,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -10103,7 +10199,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -10115,7 +10213,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -10127,7 +10227,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -10625,8 +10727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10859,7 +10961,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>55.742000000000004</v>
+        <v>65.59500000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -10969,7 +11071,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -10983,8 +11085,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -10997,7 +11099,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -11011,7 +11113,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -11023,7 +11127,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -11035,7 +11141,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
@@ -11044,8 +11152,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>2.768</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -11054,7 +11166,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -11064,7 +11178,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -11074,7 +11190,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -11084,7 +11202,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -11094,7 +11214,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -11104,7 +11226,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -11114,7 +11238,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -11124,7 +11250,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -11134,7 +11262,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -11144,7 +11274,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -11154,7 +11286,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -11533,8 +11667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11767,7 +11901,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>55.742000000000004</v>
+        <v>62.82700000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -11877,7 +12011,7 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="21">
         <v>0.41</v>
       </c>
       <c r="G24" s="21"/>
@@ -11891,8 +12025,8 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>1.572</v>
+      <c r="F25" s="21">
+        <v>1.5720000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
@@ -11905,7 +12039,7 @@
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="21">
         <v>3.36</v>
       </c>
       <c r="G26" s="21"/>
@@ -11919,7 +12053,9 @@
       <c r="E27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.7429999999999999</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
@@ -11931,7 +12067,9 @@
       <c r="E28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.88</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
@@ -11943,7 +12081,9 @@
       <c r="E29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="n">
+        <v>2.462</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
